--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_2/Product_TOC_Ingestion_NoAlignUsecase-2.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_2/Product_TOC_Ingestion_NoAlignUsecase-2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" tabRatio="454"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -345,9 +350,6 @@
     <t>Alaska</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_Program</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -375,9 +377,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_Course</t>
-  </si>
-  <si>
     <t>Print</t>
   </si>
   <si>
@@ -387,14 +386,20 @@
     <t>ISBN 13 updated</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_J2</t>
+    <t>Feldman_Product_TOC_K2</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_Program_K2</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_Course_K2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,7 +568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -598,7 +603,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -775,21 +780,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -809,37 +814,37 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -847,53 +852,53 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -943,7 +948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -967,7 +972,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -989,7 +994,7 @@
       <c r="I14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -1012,7 +1017,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1031,7 +1036,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1050,7 +1055,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1069,7 +1074,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1088,7 +1093,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1107,7 +1112,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1126,7 +1131,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1145,7 +1150,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1162,7 +1167,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1179,7 +1184,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1198,7 +1203,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1217,7 +1222,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1236,7 +1241,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1255,7 +1260,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1274,7 +1279,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1293,7 +1298,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1312,7 +1317,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1331,7 +1336,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1350,7 +1355,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1369,7 +1374,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1388,7 +1393,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1407,7 +1412,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1424,7 +1429,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1443,7 +1448,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1462,7 +1467,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1481,7 +1486,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1500,7 +1505,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1519,7 +1524,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1538,7 +1543,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1557,7 +1562,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1576,7 +1581,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1595,7 +1600,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1614,7 +1619,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1633,7 +1638,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1652,7 +1657,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1671,7 +1676,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1690,7 +1695,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1709,7 +1714,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1728,7 +1733,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1747,7 +1752,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1766,7 +1771,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1785,7 +1790,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1804,7 +1809,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -1823,7 +1828,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -1842,7 +1847,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -1861,7 +1866,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -1880,7 +1885,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -1899,7 +1904,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -1918,7 +1923,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -1937,7 +1942,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -1954,7 +1959,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -1973,7 +1978,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -1992,7 +1997,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2011,7 +2016,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2030,7 +2035,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2049,7 +2054,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2068,7 +2073,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2087,7 +2092,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2106,7 +2111,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2125,7 +2130,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2144,7 +2149,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2163,7 +2168,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2182,7 +2187,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2201,7 +2206,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2220,7 +2225,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2235,7 +2240,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2250,7 +2255,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2265,7 +2270,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2284,7 +2289,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2299,7 +2304,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2314,7 +2319,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2329,7 +2334,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2348,7 +2353,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2363,7 +2368,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2378,7 +2383,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2393,7 +2398,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2412,7 +2417,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" s="4">
         <v>3</v>
       </c>
@@ -2427,105 +2432,105 @@
       <c r="J92" s="4"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C93" s="4">
         <v>4</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C94" s="4">
         <v>5</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C95" s="4">
         <v>6</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="4">
         <v>7</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C97" s="4">
         <v>8</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C98" s="4">
         <v>9</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C99" s="4">
         <v>10</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="4"/>

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_2/Product_TOC_Ingestion_NoAlignUsecase-2.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_2/Product_TOC_Ingestion_NoAlignUsecase-2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" tabRatio="454"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -350,6 +345,9 @@
     <t>Alaska</t>
   </si>
   <si>
+    <t>Feldman_Product_TOC_Program</t>
+  </si>
+  <si>
     <t>K</t>
   </si>
   <si>
@@ -377,6 +375,9 @@
     <t>12</t>
   </si>
   <si>
+    <t>Feldman_Product_TOC_Course</t>
+  </si>
+  <si>
     <t>Print</t>
   </si>
   <si>
@@ -386,20 +387,14 @@
     <t>ISBN 13 updated</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_K2</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_Program_K2</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_Course_K2</t>
+    <t>Feldman_Product_TOC_J2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,7 +563,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -603,7 +598,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -780,21 +775,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -814,37 +809,37 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -852,53 +847,53 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,7 +943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -972,7 +967,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -994,7 +989,7 @@
       <c r="I14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -1017,7 +1012,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1036,7 +1031,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1055,7 +1050,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1074,7 +1069,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1093,7 +1088,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1112,7 +1107,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1131,7 +1126,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1150,7 +1145,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1167,7 +1162,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1184,7 +1179,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1203,7 +1198,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1222,7 +1217,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1241,7 +1236,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1260,7 +1255,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1279,7 +1274,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1298,7 +1293,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1317,7 +1312,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1336,7 +1331,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1355,7 +1350,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1374,7 +1369,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1393,7 +1388,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1412,7 +1407,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1429,7 +1424,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1448,7 +1443,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1467,7 +1462,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1486,7 +1481,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1505,7 +1500,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1524,7 +1519,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1543,7 +1538,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1562,7 +1557,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1581,7 +1576,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1600,7 +1595,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1619,7 +1614,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1638,7 +1633,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1657,7 +1652,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1676,7 +1671,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1695,7 +1690,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1714,7 +1709,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1733,7 +1728,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1752,7 +1747,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1771,7 +1766,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1790,7 +1785,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1809,7 +1804,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -1828,7 +1823,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -1847,7 +1842,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -1866,7 +1861,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -1885,7 +1880,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -1904,7 +1899,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -1923,7 +1918,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -1942,7 +1937,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -1959,7 +1954,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -1978,7 +1973,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -1997,7 +1992,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2016,7 +2011,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2035,7 +2030,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2054,7 +2049,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2073,7 +2068,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2092,7 +2087,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2111,7 +2106,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2130,7 +2125,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2149,7 +2144,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2168,7 +2163,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2187,7 +2182,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2206,7 +2201,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2225,7 +2220,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2240,7 +2235,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2255,7 +2250,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2270,7 +2265,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2289,7 +2284,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2304,7 +2299,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2319,7 +2314,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2334,7 +2329,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2353,7 +2348,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2368,7 +2363,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2383,7 +2378,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2398,7 +2393,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2417,7 +2412,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C92" s="4">
         <v>3</v>
       </c>
@@ -2432,105 +2427,105 @@
       <c r="J92" s="4"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C93" s="4">
         <v>4</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C94" s="4">
         <v>5</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C95" s="4">
         <v>6</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C96" s="4">
         <v>7</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C97" s="4">
         <v>8</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C98" s="4">
         <v>9</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C99" s="4">
         <v>10</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="4"/>

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_2/Product_TOC_Ingestion_NoAlignUsecase-2.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_2/Product_TOC_Ingestion_NoAlignUsecase-2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" tabRatio="454"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -345,9 +350,6 @@
     <t>Alaska</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_Program</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -375,9 +377,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_Course</t>
-  </si>
-  <si>
     <t>Print</t>
   </si>
   <si>
@@ -387,14 +386,20 @@
     <t>ISBN 13 updated</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_J2</t>
+    <t>Feldman_Product_TOC_ppe2</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_Program_1</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_Course_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,21 +780,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -809,37 +814,37 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -847,53 +852,53 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -943,7 +948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -967,7 +972,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -989,7 +994,7 @@
       <c r="I14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -1012,7 +1017,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1031,7 +1036,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1050,7 +1055,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1069,7 +1074,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1088,7 +1093,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1107,7 +1112,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1126,7 +1131,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1145,7 +1150,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1162,7 +1167,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1179,7 +1184,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1198,7 +1203,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1217,7 +1222,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1236,7 +1241,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1255,7 +1260,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1274,7 +1279,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1293,7 +1298,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1312,7 +1317,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1331,7 +1336,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1350,7 +1355,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1369,7 +1374,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1388,7 +1393,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1407,7 +1412,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1424,7 +1429,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1443,7 +1448,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1462,7 +1467,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1481,7 +1486,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1500,7 +1505,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1519,7 +1524,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1538,7 +1543,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1557,7 +1562,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1576,7 +1581,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1595,7 +1600,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1614,7 +1619,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1633,7 +1638,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1652,7 +1657,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1671,7 +1676,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1690,7 +1695,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1709,7 +1714,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1728,7 +1733,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1747,7 +1752,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1766,7 +1771,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1785,7 +1790,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1804,7 +1809,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -1823,7 +1828,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -1842,7 +1847,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -1861,7 +1866,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -1880,7 +1885,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -1899,7 +1904,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -1918,7 +1923,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -1937,7 +1942,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -1954,7 +1959,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -1973,7 +1978,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -1992,7 +1997,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2011,7 +2016,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2030,7 +2035,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2049,7 +2054,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2068,7 +2073,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2087,7 +2092,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2106,7 +2111,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2125,7 +2130,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2144,7 +2149,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2163,7 +2168,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2182,7 +2187,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2201,7 +2206,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2220,7 +2225,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2235,7 +2240,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2250,7 +2255,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2265,7 +2270,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2284,7 +2289,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2299,7 +2304,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2314,7 +2319,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2329,7 +2334,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2348,7 +2353,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2363,7 +2368,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2378,7 +2383,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2393,7 +2398,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2412,7 +2417,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" s="4">
         <v>3</v>
       </c>
@@ -2427,105 +2432,105 @@
       <c r="J92" s="4"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C93" s="4">
         <v>4</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C94" s="4">
         <v>5</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C95" s="4">
         <v>6</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C96" s="4">
         <v>7</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C97" s="4">
         <v>8</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C98" s="4">
         <v>9</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C99" s="4">
         <v>10</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="4"/>

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_2/Product_TOC_Ingestion_NoAlignUsecase-2.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_2/Product_TOC_Ingestion_NoAlignUsecase-2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" tabRatio="454"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -386,20 +381,20 @@
     <t>ISBN 13 updated</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_ppe2</t>
-  </si>
-  <si>
     <t>Feldman_Product_TOC_Program_1</t>
   </si>
   <si>
     <t>Feldman_Product_TOC_Course_1</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_25Feb-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,21 +775,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -814,37 +809,37 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -852,13 +847,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -866,7 +861,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -874,7 +869,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -882,7 +877,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -890,7 +885,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -898,7 +893,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,7 +943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -972,7 +967,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -994,7 +989,7 @@
       <c r="I14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -1017,7 +1012,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1036,7 +1031,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1055,7 +1050,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1074,7 +1069,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1093,7 +1088,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1112,7 +1107,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1131,7 +1126,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1150,7 +1145,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1167,7 +1162,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1184,7 +1179,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1203,7 +1198,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1222,7 +1217,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1241,7 +1236,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1260,7 +1255,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1279,7 +1274,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1298,7 +1293,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1317,7 +1312,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1336,7 +1331,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1355,7 +1350,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1374,7 +1369,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1393,7 +1388,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1412,7 +1407,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1429,7 +1424,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1448,7 +1443,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1467,7 +1462,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1486,7 +1481,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1505,7 +1500,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1524,7 +1519,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1543,7 +1538,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1562,7 +1557,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1581,7 +1576,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1600,7 +1595,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1619,7 +1614,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1638,7 +1633,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1657,7 +1652,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1676,7 +1671,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1695,7 +1690,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1714,7 +1709,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1733,7 +1728,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1752,7 +1747,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1771,7 +1766,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1790,7 +1785,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1809,7 +1804,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -1828,7 +1823,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -1847,7 +1842,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -1866,7 +1861,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -1885,7 +1880,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -1904,7 +1899,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -1923,7 +1918,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -1942,7 +1937,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -1959,7 +1954,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -1978,7 +1973,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -1997,7 +1992,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2016,7 +2011,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2035,7 +2030,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2054,7 +2049,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2073,7 +2068,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2092,7 +2087,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2111,7 +2106,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2130,7 +2125,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2149,7 +2144,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2168,7 +2163,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2187,7 +2182,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2206,7 +2201,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2225,7 +2220,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2240,7 +2235,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2255,7 +2250,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2270,7 +2265,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2289,7 +2284,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2304,7 +2299,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2319,7 +2314,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2334,7 +2329,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2353,7 +2348,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2368,7 +2363,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2383,7 +2378,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2398,7 +2393,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2417,7 +2412,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C92" s="4">
         <v>3</v>
       </c>
@@ -2432,7 +2427,7 @@
       <c r="J92" s="4"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C93" s="4">
         <v>4</v>
       </c>
@@ -2447,7 +2442,7 @@
       <c r="J93" s="4"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C94" s="4">
         <v>5</v>
       </c>
@@ -2462,7 +2457,7 @@
       <c r="J94" s="4"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C95" s="4">
         <v>6</v>
       </c>
@@ -2477,7 +2472,7 @@
       <c r="J95" s="4"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C96" s="4">
         <v>7</v>
       </c>
@@ -2492,7 +2487,7 @@
       <c r="J96" s="4"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C97" s="4">
         <v>8</v>
       </c>
@@ -2507,7 +2502,7 @@
       <c r="J97" s="4"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C98" s="4">
         <v>9</v>
       </c>
@@ -2522,7 +2517,7 @@
       <c r="J98" s="4"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C99" s="4">
         <v>10</v>
       </c>
